--- a/User Stories Template.xlsx
+++ b/User Stories Template.xlsx
@@ -1,22 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Swapnil" sheetId="2" r:id="rId2"/>
+    <sheet name="Yogesh" sheetId="3" r:id="rId3"/>
+    <sheet name="Savita" sheetId="4" r:id="rId4"/>
+    <sheet name="Digivijay" sheetId="5" r:id="rId5"/>
+    <sheet name="Rutuja" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="58">
   <si>
     <t xml:space="preserve">Name </t>
   </si>
@@ -172,12 +175,30 @@
   </si>
   <si>
     <t>Yogesh Dabhole  &amp; Swapnil Kalas</t>
+  </si>
+  <si>
+    <t>Planned start Date</t>
+  </si>
+  <si>
+    <t>Planned End Date</t>
+  </si>
+  <si>
+    <t>Size</t>
+  </si>
+  <si>
+    <t>actual Start Date</t>
+  </si>
+  <si>
+    <t>Actual End date</t>
+  </si>
+  <si>
+    <t>References</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -201,7 +222,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -224,11 +245,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -240,6 +272,9 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -249,6 +284,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -297,7 +335,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -332,7 +370,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -543,8 +581,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:L39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1152,24 +1190,245 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:K1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="9" max="9" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:K1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/User Stories Template.xlsx
+++ b/User Stories Template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="60">
   <si>
     <t xml:space="preserve">Name </t>
   </si>
@@ -193,6 +193,12 @@
   </si>
   <si>
     <t>References</t>
+  </si>
+  <si>
+    <t>flight</t>
+  </si>
+  <si>
+    <t>Testcase design</t>
   </si>
 </sst>
 </file>
@@ -1190,10 +1196,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K1"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1234,6 +1240,17 @@
       </c>
       <c r="K1" s="5" t="s">
         <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2">
+        <v>123</v>
+      </c>
+      <c r="C2" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -1389,7 +1406,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>

--- a/User Stories Template.xlsx
+++ b/User Stories Template.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="85">
   <si>
     <t xml:space="preserve">Name </t>
   </si>
@@ -199,12 +199,88 @@
   </si>
   <si>
     <t>Testcase design</t>
+  </si>
+  <si>
+    <t>Flight</t>
+  </si>
+  <si>
+    <t>US_01</t>
+  </si>
+  <si>
+    <t>As a user I would like to Search Flights So that I can check flights available or not for my destination</t>
+  </si>
+  <si>
+    <t>US_02</t>
+  </si>
+  <si>
+    <t>As a User, I would like to view the flights in order of lowest to highest fares, so that i can choose my flight accordingly</t>
+  </si>
+  <si>
+    <t>US_03</t>
+  </si>
+  <si>
+    <t>As a user I would like to choose type(one way or round trip) of trip so that I can plan my  full journey accordingly</t>
+  </si>
+  <si>
+    <t>US_04</t>
+  </si>
+  <si>
+    <t>As a user I would like to filter my search results as per the airlines departure time so that I can choose one which is  sutable for me.</t>
+  </si>
+  <si>
+    <t>US_05</t>
+  </si>
+  <si>
+    <t>As a User, I would like to review the flight details after i have selected my
+choice and before i make the payment, so that I can be sure there have been no errors</t>
+  </si>
+  <si>
+    <t>US_06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As a user I would like to Select  preferece class  so that it can choose class according to my budget </t>
+  </si>
+  <si>
+    <t>US_07</t>
+  </si>
+  <si>
+    <t>As a Stakeholder I would like to collect nesessary detail of user through sign in authentication so that I can genetate his/her flight booking ticket</t>
+  </si>
+  <si>
+    <t>US_08</t>
+  </si>
+  <si>
+    <t>As a User, i would like the option of continuing to make a booking  through "Sign in" so that I can book a ticket from my personal Account only</t>
+  </si>
+  <si>
+    <t>US_09</t>
+  </si>
+  <si>
+    <t>As a user, I would like to have a smooth and easy way of making an online payment, so that I can get complete my transaction without any hassels.</t>
+  </si>
+  <si>
+    <t>US_10</t>
+  </si>
+  <si>
+    <t>As a User, I would like to receive a confirmation of ticket booking once my transaction is done, so that I can be assured of travel booking.</t>
+  </si>
+  <si>
+    <t>US_11</t>
+  </si>
+  <si>
+    <t>As a User, I would like to get timely reminders of my travel so that i do not forget about my travel.</t>
+  </si>
+  <si>
+    <t>US_12</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> As a user, I would like to filter my search results  with lowest fares so that I can   plan my journey  which is  most cost effective.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -266,7 +342,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -281,6 +357,23 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -341,7 +434,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -376,7 +469,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1198,7 +1291,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -1260,19 +1353,25 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K1"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3:F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="9.140625" style="11"/>
+    <col min="3" max="3" width="32.28515625" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" customWidth="1"/>
+    <col min="11" max="11" width="10.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="10" t="s">
         <v>50</v>
       </c>
       <c r="C1" s="2" t="s">
@@ -1288,18 +1387,254 @@
       <c r="G1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="9" t="s">
         <v>57</v>
       </c>
+    </row>
+    <row r="2" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="D2" s="8"/>
+      <c r="E2" s="12">
+        <v>44835</v>
+      </c>
+      <c r="F2" s="12">
+        <v>44836</v>
+      </c>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+    </row>
+    <row r="3" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D3" s="8"/>
+      <c r="E3" s="12">
+        <v>44835</v>
+      </c>
+      <c r="F3" s="12">
+        <v>44836</v>
+      </c>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+    </row>
+    <row r="4" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+    </row>
+    <row r="5" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+    </row>
+    <row r="6" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+    </row>
+    <row r="7" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+    </row>
+    <row r="8" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+    </row>
+    <row r="9" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+    </row>
+    <row r="10" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+    </row>
+    <row r="11" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+    </row>
+    <row r="12" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+    </row>
+    <row r="13" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/User Stories Template.xlsx
+++ b/User Stories Template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="86">
   <si>
     <t xml:space="preserve">Name </t>
   </si>
@@ -193,12 +193,6 @@
   </si>
   <si>
     <t>References</t>
-  </si>
-  <si>
-    <t>flight</t>
-  </si>
-  <si>
-    <t>Testcase design</t>
   </si>
   <si>
     <t>Flight</t>
@@ -275,6 +269,15 @@
   </si>
   <si>
     <t xml:space="preserve"> As a user, I would like to filter my search results  with lowest fares so that I can   plan my journey  which is  most cost effective.</t>
+  </si>
+  <si>
+    <t>US_1</t>
+  </si>
+  <si>
+    <t>Swapnil</t>
+  </si>
+  <si>
+    <t>User stories 1</t>
   </si>
 </sst>
 </file>
@@ -1291,8 +1294,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1337,13 +1340,13 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B2">
-        <v>123</v>
+        <v>84</v>
+      </c>
+      <c r="B2" t="s">
+        <v>83</v>
       </c>
       <c r="C2" t="s">
-        <v>59</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -1355,7 +1358,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E3" sqref="E3:F3"/>
     </sheetView>
   </sheetViews>
@@ -1402,13 +1405,13 @@
     </row>
     <row r="2" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="D2" s="8"/>
       <c r="E2" s="12">
@@ -1425,13 +1428,13 @@
     </row>
     <row r="3" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D3" s="8"/>
       <c r="E3" s="12">
@@ -1448,13 +1451,13 @@
     </row>
     <row r="4" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
@@ -1467,13 +1470,13 @@
     </row>
     <row r="5" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
@@ -1486,13 +1489,13 @@
     </row>
     <row r="6" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D6" s="8"/>
       <c r="E6" s="8"/>
@@ -1505,13 +1508,13 @@
     </row>
     <row r="7" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
@@ -1524,13 +1527,13 @@
     </row>
     <row r="8" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
@@ -1543,13 +1546,13 @@
     </row>
     <row r="9" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
@@ -1562,13 +1565,13 @@
     </row>
     <row r="10" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
@@ -1581,13 +1584,13 @@
     </row>
     <row r="11" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
@@ -1600,13 +1603,13 @@
     </row>
     <row r="12" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
@@ -1619,13 +1622,13 @@
     </row>
     <row r="13" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
